--- a/documentacion/vidaestudiantil/Subida a Educatico/ficha_educatico-PROTOCOLOS.xlsx
+++ b/documentacion/vidaestudiantil/Subida a Educatico/ficha_educatico-PROTOCOLOS.xlsx
@@ -321,10 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="241">
-  <si>
-    <t>Título</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="241">
   <si>
     <t>Descripción breve (50 caracteres)</t>
   </si>
@@ -1204,6 +1201,9 @@
   </si>
   <si>
     <t>ADJUNTO: manual atención embarazo y maternidad adolescente internas.PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Título </t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1436,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1591,6 +1591,24 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1600,20 +1618,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2393,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2414,116 +2420,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
+      <c r="A1" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
       <c r="S1" s="38"/>
     </row>
     <row r="2" spans="1:20" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="I2" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="37" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="37" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="C3" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>161</v>
-      </c>
       <c r="N3" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
@@ -2533,692 +2543,692 @@
       <c r="T3" s="13"/>
     </row>
     <row r="4" spans="1:20" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
-        <v>176</v>
+      <c r="A4" s="54" t="s">
+        <v>175</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="E4" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="F4" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="G4" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="G4" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="56" t="s">
+      <c r="I4" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="K4" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="I4" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>229</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>227</v>
-      </c>
       <c r="L4" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="M4" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="N4" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="O4" s="57"/>
-      <c r="P4" s="56"/>
+        <v>169</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="O4" s="56"/>
+      <c r="P4" s="55"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
+        <v>162</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="M5" s="55"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="56"/>
+        <v>169</v>
+      </c>
+      <c r="M5" s="54"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="55"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
-        <v>177</v>
+      <c r="A6" s="54" t="s">
+        <v>176</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="E6" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="G6" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="G6" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="55" t="s">
+      <c r="I6" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="K6" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="I6" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="K6" s="55" t="s">
-        <v>227</v>
-      </c>
       <c r="L6" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="M6" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="N6" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
+        <v>170</v>
+      </c>
+      <c r="M6" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="N6" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
       <c r="T6" s="16"/>
     </row>
     <row r="7" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
+        <v>164</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
+        <v>171</v>
+      </c>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="16"/>
     </row>
     <row r="8" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
+        <v>165</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
+        <v>174</v>
+      </c>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="16"/>
     </row>
     <row r="9" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
+        <v>166</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
       <c r="L9" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
+        <v>172</v>
+      </c>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
+        <v>167</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
+        <v>173</v>
+      </c>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="16"/>
     </row>
     <row r="11" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="E11" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="F11" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="G11" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="G11" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="55" t="s">
+      <c r="I11" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="I11" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="J11" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>227</v>
-      </c>
       <c r="L11" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="M11" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="N11" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
+        <v>183</v>
+      </c>
+      <c r="M11" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="N11" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="16"/>
     </row>
     <row r="12" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
+        <v>179</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
       <c r="L12" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
+        <v>184</v>
+      </c>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="16"/>
     </row>
     <row r="13" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
+        <v>180</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
+        <v>185</v>
+      </c>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="16"/>
     </row>
     <row r="14" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
+        <v>181</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
+        <v>186</v>
+      </c>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
       <c r="T14" s="16"/>
     </row>
     <row r="15" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
+        <v>182</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
+        <v>187</v>
+      </c>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
       <c r="T15" s="16"/>
     </row>
     <row r="16" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
+        <v>188</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
+        <v>190</v>
+      </c>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
       <c r="T16" s="16"/>
     </row>
     <row r="17" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
       <c r="T17" s="16"/>
     </row>
     <row r="18" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
-        <v>192</v>
+      <c r="A18" s="54" t="s">
+        <v>191</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="E18" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="F18" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="G18" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="G18" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="55" t="s">
+      <c r="I18" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="K18" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="I18" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="J18" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="K18" s="55" t="s">
-        <v>227</v>
-      </c>
       <c r="L18" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="M18" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="N18" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
+        <v>193</v>
+      </c>
+      <c r="M18" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="N18" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
       <c r="T18" s="16"/>
     </row>
     <row r="19" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
+        <v>192</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
+        <v>194</v>
+      </c>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
       <c r="T19" s="16"/>
     </row>
     <row r="20" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
+        <v>179</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
+        <v>195</v>
+      </c>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="16"/>
     </row>
     <row r="21" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
+        <v>182</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
       <c r="L21" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
+        <v>196</v>
+      </c>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
       <c r="T21" s="16"/>
     </row>
     <row r="22" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
+        <v>188</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
+        <v>197</v>
+      </c>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="T22" s="16"/>
     </row>
     <row r="23" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
+        <v>167</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
+        <v>198</v>
+      </c>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="16"/>
     </row>
     <row r="24" spans="1:20" s="14" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
-        <v>203</v>
+      <c r="A24" s="54" t="s">
+        <v>202</v>
       </c>
       <c r="B24" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="E24" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="G24" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="I24" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="J24" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="K24" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="L24" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="M24" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="N24" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
+      <c r="M24" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="N24" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
+        <v>164</v>
+      </c>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
+        <v>201</v>
+      </c>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
@@ -3226,44 +3236,44 @@
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="L26" s="46" t="s">
         <v>204</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="I26" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="J26" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="K26" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="L26" s="46" t="s">
-        <v>205</v>
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O26" s="40"/>
       <c r="P26" s="40"/>
@@ -3273,206 +3283,206 @@
       <c r="T26" s="16"/>
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="E27" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="F27" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="G27" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="G27" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" s="55" t="s">
+      <c r="I27" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="K27" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="I27" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="J27" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="K27" s="55" t="s">
-        <v>227</v>
-      </c>
       <c r="L27" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="M27" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="N27" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
+        <v>218</v>
+      </c>
+      <c r="M27" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="N27" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
       <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
+        <v>164</v>
+      </c>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
       <c r="L28" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
+        <v>217</v>
+      </c>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
       <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
+        <v>207</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
       <c r="L29" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
+        <v>216</v>
+      </c>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
       <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
+        <v>208</v>
+      </c>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
       <c r="L30" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
+        <v>215</v>
+      </c>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
+        <v>209</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
       <c r="L31" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
+        <v>214</v>
+      </c>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
       <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
+        <v>210</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
       <c r="L32" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
+        <v>213</v>
+      </c>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
       <c r="T32" s="16"/>
     </row>
     <row r="33" spans="1:20" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
@@ -3480,44 +3490,44 @@
     </row>
     <row r="34" spans="1:20" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A34" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="C34" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H34" s="6" t="s">
+      <c r="I34" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="L34" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -3550,6 +3560,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="M6:M10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="J6:J10"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="N6:N10"/>
+    <mergeCell ref="O6:O10"/>
+    <mergeCell ref="P6:P10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="E11:E17"/>
+    <mergeCell ref="F11:F17"/>
+    <mergeCell ref="G11:G17"/>
+    <mergeCell ref="H11:H17"/>
+    <mergeCell ref="I11:I17"/>
+    <mergeCell ref="J11:J17"/>
+    <mergeCell ref="K11:K17"/>
+    <mergeCell ref="M11:M17"/>
+    <mergeCell ref="N11:N17"/>
+    <mergeCell ref="O11:O17"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="P11:P17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="H18:H23"/>
+    <mergeCell ref="I18:I23"/>
+    <mergeCell ref="J18:J23"/>
+    <mergeCell ref="K18:K23"/>
+    <mergeCell ref="M18:M23"/>
+    <mergeCell ref="N18:N23"/>
+    <mergeCell ref="O18:O23"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="P18:P23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="N27:N33"/>
+    <mergeCell ref="O27:O33"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F27:F33"/>
+    <mergeCell ref="G27:G33"/>
+    <mergeCell ref="H27:H33"/>
+    <mergeCell ref="I27:I33"/>
     <mergeCell ref="P27:P33"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -3566,75 +3645,6 @@
     <mergeCell ref="J27:J33"/>
     <mergeCell ref="K27:K33"/>
     <mergeCell ref="M27:M33"/>
-    <mergeCell ref="N27:N33"/>
-    <mergeCell ref="O27:O33"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F27:F33"/>
-    <mergeCell ref="G27:G33"/>
-    <mergeCell ref="H27:H33"/>
-    <mergeCell ref="I27:I33"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="P18:P23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="P11:P17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="H18:H23"/>
-    <mergeCell ref="I18:I23"/>
-    <mergeCell ref="J18:J23"/>
-    <mergeCell ref="K18:K23"/>
-    <mergeCell ref="M18:M23"/>
-    <mergeCell ref="N18:N23"/>
-    <mergeCell ref="O18:O23"/>
-    <mergeCell ref="P6:P10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="D11:D17"/>
-    <mergeCell ref="E11:E17"/>
-    <mergeCell ref="F11:F17"/>
-    <mergeCell ref="G11:G17"/>
-    <mergeCell ref="H11:H17"/>
-    <mergeCell ref="I11:I17"/>
-    <mergeCell ref="J11:J17"/>
-    <mergeCell ref="K11:K17"/>
-    <mergeCell ref="M11:M17"/>
-    <mergeCell ref="N11:N17"/>
-    <mergeCell ref="O11:O17"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="M6:M10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="J6:J10"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="N6:N10"/>
-    <mergeCell ref="O6:O10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L9" r:id="rId1"/>
@@ -3693,122 +3703,122 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3834,32 +3844,32 @@
   <sheetData>
     <row r="1" spans="1:1" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3889,27 +3899,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3934,12 +3944,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3965,106 +3975,106 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>106</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>108</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>118</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4095,19 +4105,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="24" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -4115,13 +4125,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="26"/>
     </row>
@@ -4130,13 +4140,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="26" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -4145,16 +4155,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="E4" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -4162,13 +4172,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="D5" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="E5" s="26"/>
     </row>
@@ -4177,13 +4187,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="D6" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="26"/>
     </row>
@@ -4192,13 +4202,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="D7" s="26" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>35</v>
       </c>
       <c r="E7" s="26"/>
     </row>
@@ -4207,13 +4217,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="D8" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>38</v>
       </c>
       <c r="E8" s="26"/>
     </row>
@@ -4222,13 +4232,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="E9" s="26"/>
     </row>
@@ -4237,16 +4247,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>42</v>
-      </c>
       <c r="E10" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -4254,16 +4264,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="E11" s="26" t="s">
         <v>45</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -4271,13 +4281,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="D12" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>49</v>
       </c>
       <c r="E12" s="26"/>
     </row>
@@ -4286,16 +4296,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="26" t="s">
+      <c r="E13" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -4303,13 +4313,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="D14" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="E14" s="26"/>
     </row>
@@ -4318,13 +4328,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="D15" s="26" t="s">
         <v>57</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>58</v>
       </c>
       <c r="E15" s="27"/>
     </row>
@@ -4333,13 +4343,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>60</v>
       </c>
       <c r="E16" s="26"/>
     </row>
@@ -4348,16 +4358,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="D17" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="E17" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
@@ -4365,13 +4375,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="D18" s="26" t="s">
         <v>66</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>67</v>
       </c>
       <c r="E18" s="26"/>
     </row>
@@ -4380,13 +4390,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="D19" s="26" t="s">
         <v>69</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>70</v>
       </c>
       <c r="E19" s="26"/>
     </row>
@@ -4395,13 +4405,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>72</v>
       </c>
       <c r="E20" s="26"/>
     </row>
@@ -4410,13 +4420,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="D21" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>75</v>
       </c>
       <c r="E21" s="26"/>
     </row>
@@ -4425,13 +4435,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="26" t="s">
         <v>77</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>78</v>
       </c>
       <c r="E22" s="26"/>
     </row>
@@ -4440,13 +4450,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="D23" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>81</v>
       </c>
       <c r="E23" s="26"/>
     </row>
@@ -4455,13 +4465,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>133</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>134</v>
       </c>
       <c r="E24" s="26"/>
     </row>
@@ -4486,12 +4496,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
